--- a/server/docs/SkillCfg_com.wan37.config.excel.SkillCfgExcel.xlsx
+++ b/server/docs/SkillCfg_com.wan37.config.excel.SkillCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4364B7-9C8B-483F-8623-F7FE7B9D1717}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97462E6E-E212-46FD-91A4-A965CB217974}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1162,11 +1162,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
